--- a/PLR_do/bubble_data/bubble_data9.xlsx
+++ b/PLR_do/bubble_data/bubble_data9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaosilin\Desktop\Population_land_realestate\PLR_do\bubble_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C3640-0133-48C0-B9FE-F686CA1D21F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABCF8F2-C5C1-466E-98E3-4A4F11888F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -462,17 +462,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.94899999999999995</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="C2" s="2">
-        <v>0.27400000000000002</v>
+        <v>0.192</v>
       </c>
       <c r="D2" s="2">
-        <v>0.51</v>
+        <v>0.432</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E10" si="0">IF(AND(B2&gt;0.9,C2&gt;0.4),"1",IF(AND(B2&gt;0.9,C2&lt;0.4),"2",IF(AND(B2&lt;0.9,C2&lt;0.4),"3","4")))</f>
-        <v>2</v>
+        <f>IF(AND(B2&gt;0.8,C2&gt;0.5),"1",IF(AND(B2&gt;0.8,C2&gt;0.3),"2",IF(AND(B2&gt;0.8,C2&lt;0.3),"3","4")))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -480,17 +480,17 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>0.90300000000000002</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>0.254</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>0.47899999999999998</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="E3:E10" si="0">IF(AND(B3&gt;0.8,C3&gt;0.5),"1",IF(AND(B3&gt;0.8,C3&gt;0.3),"2",IF(AND(B3&gt;0.8,C3&lt;0.3),"3","4")))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -498,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.67300000000000004</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="C4" s="2">
-        <v>0.20200000000000001</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.36899999999999999</v>
+        <v>0.246</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -516,13 +516,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.53100000000000003</v>
+        <v>0.87</v>
       </c>
       <c r="C5" s="2">
-        <v>0.17699999999999999</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.30599999999999999</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -534,13 +534,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>0.48</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="C6" s="2">
-        <v>0.17199999999999999</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.28699999999999998</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -552,13 +552,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>0.54100000000000004</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>0.17599999999999999</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.308</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -570,13 +570,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>0.64800000000000002</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="C8" s="2">
-        <v>0.20100000000000001</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -588,13 +588,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>0.505</v>
+        <v>0.91</v>
       </c>
       <c r="C9" s="2">
-        <v>0.185</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>0.30599999999999999</v>
+        <v>0.184</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -606,13 +606,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>0.55300000000000005</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="C10" s="2">
-        <v>0.20300000000000001</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.33500000000000002</v>
+        <v>0.219</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
